--- a/02_Delo_s_podatki/viri/primer.xlsx
+++ b/02_Delo_s_podatki/viri/primer.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -79,7 +80,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -548,4 +548,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>